--- a/Data Penelitian/13. Pengujian keTigabelas/1. Nilai Rata-Rata RSSI/Visual.xlsx
+++ b/Data Penelitian/13. Pengujian keTigabelas/1. Nilai Rata-Rata RSSI/Visual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan Firmansyah\Desktop\TES\Data Penelitian\12. Pengujian keDuabelas\1. Nilai Rata-Rata RSSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan Firmansyah\Desktop\TES\Data Penelitian\13. Pengujian keTigabelas\1. Nilai Rata-Rata RSSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB82F5A5-3B45-4562-9317-E73AE67073E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF729E6-E2E6-43B4-B574-28371C771F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="B3:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,99 +382,99 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="C4">
-        <v>-23</v>
+        <v>-14</v>
       </c>
       <c r="D4">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="F4" s="1">
         <f>AVERAGE(B4:B203)</f>
-        <v>-28.664999999999999</v>
+        <v>-29</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:H4" si="0">AVERAGE(C4:C203)</f>
-        <v>-24.875</v>
+        <v>-18.03</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-22.844999999999999</v>
+        <v>-20.995000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="C5">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="D5">
-        <v>-22</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="C6">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="D6">
-        <v>-25</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="C7">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D7">
-        <v>-20</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C8">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D8">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="C9">
-        <v>-27</v>
+        <v>-17</v>
       </c>
       <c r="D9">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C10">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="D10">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>-30</v>
+        <v>-24</v>
       </c>
       <c r="C11">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="D11">
         <v>-20</v>
@@ -482,87 +482,87 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C12">
-        <v>-26</v>
+        <v>-20</v>
       </c>
       <c r="D12">
-        <v>-23</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="C13">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D13">
-        <v>-21</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C14">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D14">
-        <v>-23</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>-34</v>
+        <v>-26</v>
       </c>
       <c r="C15">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D15">
-        <v>-21</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C16">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D16">
-        <v>-24</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C17">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D17">
-        <v>-22</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C18">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D18">
-        <v>-23</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C19">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D19">
         <v>-21</v>
@@ -570,21 +570,21 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C20">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D20">
-        <v>-23</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="C21">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D21">
         <v>-20</v>
@@ -592,43 +592,43 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C22">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D22">
-        <v>-25</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>-33</v>
+        <v>-21</v>
       </c>
       <c r="C23">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D23">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>-23</v>
+        <v>-37</v>
       </c>
       <c r="C24">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="D24">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C25">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D25">
         <v>-20</v>
@@ -636,43 +636,43 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C26">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D26">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C27">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D27">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C28">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D28">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>-33</v>
+        <v>-35</v>
       </c>
       <c r="C29">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D29">
         <v>-20</v>
@@ -680,21 +680,21 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C30">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D30">
-        <v>-26</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C31">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D31">
         <v>-20</v>
@@ -705,40 +705,40 @@
         <v>-24</v>
       </c>
       <c r="C32">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D32">
-        <v>-26</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C33">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D33">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="C34">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D34">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C35">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D35">
         <v>-20</v>
@@ -749,43 +749,43 @@
         <v>-24</v>
       </c>
       <c r="C36">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D36">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C37">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D37">
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="C38">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D38">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C39">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D39">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -793,18 +793,18 @@
         <v>-24</v>
       </c>
       <c r="C40">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D40">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C41">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D41">
         <v>-20</v>
@@ -812,21 +812,21 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C42">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D42">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C43">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D43">
         <v>-20</v>
@@ -834,21 +834,21 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C44">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D44">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C45">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D45">
         <v>-20</v>
@@ -856,65 +856,65 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C46">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D46">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C47">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D47">
-        <v>-20</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="C48">
-        <v>-32</v>
+        <v>-19</v>
       </c>
       <c r="D48">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C49">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D49">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>-23</v>
+        <v>-37</v>
       </c>
       <c r="C50">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D50">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C51">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D51">
         <v>-20</v>
@@ -922,21 +922,21 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C52">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D52">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C53">
-        <v>-32</v>
+        <v>-17</v>
       </c>
       <c r="D53">
         <v>-20</v>
@@ -944,21 +944,21 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>-25</v>
+        <v>-34</v>
       </c>
       <c r="C54">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D54">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C55">
-        <v>-32</v>
+        <v>-17</v>
       </c>
       <c r="D55">
         <v>-20</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C56">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D56">
         <v>-20</v>
@@ -977,32 +977,32 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C57">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D57">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>-23</v>
+        <v>-35</v>
       </c>
       <c r="C58">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D58">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C59">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D59">
         <v>-20</v>
@@ -1010,21 +1010,21 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C60">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D60">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="C61">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D61">
         <v>-20</v>
@@ -1032,43 +1032,43 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C62">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D62">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C63">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D63">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C64">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D64">
-        <v>-27</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C65">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D65">
         <v>-20</v>
@@ -1076,21 +1076,21 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="C66">
-        <v>-33</v>
+        <v>-17</v>
       </c>
       <c r="D66">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C67">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="D67">
         <v>-20</v>
@@ -1098,21 +1098,21 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C68">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D68">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="C69">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D69">
         <v>-20</v>
@@ -1120,43 +1120,43 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C70">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D70">
-        <v>-27</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C71">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D71">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C72">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D72">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>-34</v>
+        <v>-22</v>
       </c>
       <c r="C73">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D73">
         <v>-20</v>
@@ -1164,21 +1164,21 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C74">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D74">
-        <v>-26</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C75">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D75">
         <v>-20</v>
@@ -1186,21 +1186,21 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C76">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="D76">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="C77">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D77">
         <v>-20</v>
@@ -1208,43 +1208,43 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C78">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D78">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C79">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D79">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C80">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D80">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C81">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D81">
         <v>-20</v>
@@ -1252,21 +1252,21 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C82">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D82">
-        <v>-25</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C83">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D83">
         <v>-20</v>
@@ -1274,43 +1274,43 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C84">
-        <v>-31</v>
+        <v>-18</v>
       </c>
       <c r="D84">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C85">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D85">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C86">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D86">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C87">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="D87">
         <v>-20</v>
@@ -1318,43 +1318,43 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C88">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D88">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C89">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D89">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C90">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D90">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>-33</v>
+        <v>-22</v>
       </c>
       <c r="C91">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D91">
         <v>-20</v>
@@ -1362,21 +1362,21 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C92">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D92">
-        <v>-26</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C93">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D93">
         <v>-20</v>
@@ -1384,43 +1384,43 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C94">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D94">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C95">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D95">
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C96">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D96">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C97">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D97">
         <v>-20</v>
@@ -1428,21 +1428,21 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C98">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D98">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C99">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D99">
         <v>-20</v>
@@ -1450,21 +1450,21 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C100">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D100">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C101">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D101">
         <v>-20</v>
@@ -1472,21 +1472,21 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C102">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D102">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C103">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D103">
         <v>-20</v>
@@ -1494,21 +1494,21 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C104">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D104">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C105">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D105">
         <v>-20</v>
@@ -1516,21 +1516,21 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C106">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D106">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C107">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D107">
         <v>-20</v>
@@ -1541,172 +1541,172 @@
         <v>-24</v>
       </c>
       <c r="C108">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D108">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109">
-        <v>-33</v>
+        <v>-22</v>
       </c>
       <c r="C109">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="D109">
-        <v>-20</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C110">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D110">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C111">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D111">
-        <v>-20</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C112">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D112">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C113">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D113">
-        <v>-20</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="C114">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D114">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C115">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="D115">
-        <v>-19</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C116">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D116">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C117">
-        <v>-33</v>
+        <v>-19</v>
       </c>
       <c r="D117">
-        <v>-20</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C118">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D118">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C119">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D119">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C120">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D120">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C121">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D121">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122">
-        <v>-23</v>
+        <v>-35</v>
       </c>
       <c r="C122">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D122">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C123">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D123">
         <v>-20</v>
@@ -1714,43 +1714,43 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C124">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D124">
-        <v>-26</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C125">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D125">
-        <v>-18</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="C126">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D126">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C127">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D127">
         <v>-20</v>
@@ -1758,43 +1758,43 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C128">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D128">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C129">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D129">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C130">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D130">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C131">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D131">
         <v>-20</v>
@@ -1802,43 +1802,43 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C132">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D132">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C133">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D133">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="C134">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D134">
-        <v>-27</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C135">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D135">
         <v>-20</v>
@@ -1846,21 +1846,21 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136">
-        <v>-25</v>
+        <v>-37</v>
       </c>
       <c r="C136">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D136">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C137">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D137">
         <v>-20</v>
@@ -1868,21 +1868,21 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C138">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D138">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C139">
-        <v>-25</v>
+        <v>-16</v>
       </c>
       <c r="D139">
         <v>-20</v>
@@ -1890,21 +1890,21 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C140">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D140">
-        <v>-27</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C141">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D141">
         <v>-20</v>
@@ -1912,21 +1912,21 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C142">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D142">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143">
-        <v>-33</v>
+        <v>-22</v>
       </c>
       <c r="C143">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D143">
         <v>-20</v>
@@ -1934,21 +1934,21 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C144">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D144">
-        <v>-26</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C145">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D145">
         <v>-20</v>
@@ -1956,21 +1956,21 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="C146">
-        <v>-25</v>
+        <v>-39</v>
       </c>
       <c r="D146">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C147">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D147">
         <v>-20</v>
@@ -1978,87 +1978,87 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C148">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D148">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C149">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D149">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C150">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="D150">
-        <v>-26</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C151">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D151">
-        <v>-26</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C152">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="D152">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C153">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D153">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C154">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D154">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C155">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D155">
         <v>-20</v>
@@ -2066,21 +2066,21 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156">
-        <v>-23</v>
+        <v>-35</v>
       </c>
       <c r="C156">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="D156">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157">
-        <v>-34</v>
+        <v>-21</v>
       </c>
       <c r="C157">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D157">
         <v>-20</v>
@@ -2088,65 +2088,65 @@
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C158">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D158">
-        <v>-26</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C159">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D159">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="C160">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D160">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C161">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D161">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C162">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D162">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C163">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="D163">
         <v>-20</v>
@@ -2154,21 +2154,21 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C164">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D164">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165">
-        <v>-33</v>
+        <v>-22</v>
       </c>
       <c r="C165">
-        <v>-25</v>
+        <v>-16</v>
       </c>
       <c r="D165">
         <v>-20</v>
@@ -2176,21 +2176,21 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C166">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D166">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C167">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D167">
         <v>-20</v>
@@ -2198,32 +2198,32 @@
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C168">
+        <v>-20</v>
+      </c>
+      <c r="D168">
         <v>-25</v>
-      </c>
-      <c r="D168">
-        <v>-26</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C169">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D169">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="C170">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D170">
         <v>-26</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C171">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D171">
         <v>-20</v>
@@ -2242,21 +2242,21 @@
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C172">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D172">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C173">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D173">
         <v>-20</v>
@@ -2264,21 +2264,21 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C174">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D174">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C175">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D175">
         <v>-20</v>
@@ -2286,43 +2286,43 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="C176">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D176">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C177">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D177">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C178">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D178">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C179">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D179">
         <v>-20</v>
@@ -2330,43 +2330,43 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="C180">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D180">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C181">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D181">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182">
-        <v>-25</v>
+        <v>-34</v>
       </c>
       <c r="C182">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D182">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183">
-        <v>-34</v>
+        <v>-22</v>
       </c>
       <c r="C183">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D183">
         <v>-20</v>
@@ -2374,21 +2374,21 @@
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C184">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D184">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185">
-        <v>-34</v>
+        <v>-22</v>
       </c>
       <c r="C185">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D185">
         <v>-20</v>
@@ -2396,43 +2396,43 @@
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C186">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D186">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C187">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D187">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C188">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="D188">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C189">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D189">
         <v>-20</v>
@@ -2440,21 +2440,21 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C190">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D190">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C191">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D191">
         <v>-20</v>
@@ -2462,43 +2462,43 @@
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C192">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D192">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C193">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D193">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C194">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="D194">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="C195">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D195">
         <v>-20</v>
@@ -2506,21 +2506,21 @@
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="C196">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D196">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="C197">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D197">
         <v>-20</v>
@@ -2528,21 +2528,21 @@
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C198">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D198">
-        <v>-26</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="C199">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="D199">
         <v>-20</v>
@@ -2550,21 +2550,21 @@
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C200">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="D200">
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="C201">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D201">
         <v>-20</v>
@@ -2572,21 +2572,21 @@
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="C202">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="D202">
-        <v>-26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203">
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="C203">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="D203">
         <v>-20</v>
